--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna2-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna2-Epha7.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.192082333333333</v>
+        <v>0.06446533333333333</v>
       </c>
       <c r="H2">
-        <v>3.576247</v>
+        <v>0.193396</v>
       </c>
       <c r="I2">
-        <v>0.2797939869571494</v>
+        <v>0.02693738696927793</v>
       </c>
       <c r="J2">
-        <v>0.2797939869571493</v>
+        <v>0.02693738696927793</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3173666666666666</v>
+        <v>0.05661333333333334</v>
       </c>
       <c r="N2">
-        <v>0.9520999999999999</v>
+        <v>0.16984</v>
       </c>
       <c r="O2">
-        <v>0.1863268828340317</v>
+        <v>0.0204119846136133</v>
       </c>
       <c r="P2">
-        <v>0.1863268828340316</v>
+        <v>0.02041198461361329</v>
       </c>
       <c r="Q2">
-        <v>0.3783271965222221</v>
+        <v>0.003649597404444445</v>
       </c>
       <c r="R2">
-        <v>3.4049447687</v>
+        <v>0.03284637664000001</v>
       </c>
       <c r="S2">
-        <v>0.05213314142543136</v>
+        <v>0.0005498455283478484</v>
       </c>
       <c r="T2">
-        <v>0.05213314142543134</v>
+        <v>0.0005498455283478483</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.192082333333333</v>
+        <v>0.06446533333333333</v>
       </c>
       <c r="H3">
-        <v>3.576247</v>
+        <v>0.193396</v>
       </c>
       <c r="I3">
-        <v>0.2797939869571494</v>
+        <v>0.02693738696927793</v>
       </c>
       <c r="J3">
-        <v>0.2797939869571493</v>
+        <v>0.02693738696927793</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,25 +617,25 @@
         <v>0.2780386666666667</v>
       </c>
       <c r="N3">
-        <v>0.834116</v>
+        <v>0.8341160000000001</v>
       </c>
       <c r="O3">
-        <v>0.1632373009158609</v>
+        <v>0.100247073468963</v>
       </c>
       <c r="P3">
-        <v>0.1632373009158609</v>
+        <v>0.1002470734689629</v>
       </c>
       <c r="Q3">
-        <v>0.3314449825168889</v>
+        <v>0.01792385532622223</v>
       </c>
       <c r="R3">
-        <v>2.983004842652</v>
+        <v>0.161314697936</v>
       </c>
       <c r="S3">
-        <v>0.04567281524337265</v>
+        <v>0.00270039421057109</v>
       </c>
       <c r="T3">
-        <v>0.04567281524337264</v>
+        <v>0.00270039421057109</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.192082333333333</v>
+        <v>0.06446533333333333</v>
       </c>
       <c r="H4">
-        <v>3.576247</v>
+        <v>0.193396</v>
       </c>
       <c r="I4">
-        <v>0.2797939869571494</v>
+        <v>0.02693738696927793</v>
       </c>
       <c r="J4">
-        <v>0.2797939869571493</v>
+        <v>0.02693738696927793</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.107873666666667</v>
+        <v>2.438882</v>
       </c>
       <c r="N4">
-        <v>3.323621</v>
+        <v>7.316646</v>
       </c>
       <c r="O4">
-        <v>0.6504358162501074</v>
+        <v>0.8793409419174237</v>
       </c>
       <c r="P4">
-        <v>0.6504358162501074</v>
+        <v>0.8793409419174237</v>
       </c>
       <c r="Q4">
-        <v>1.320676625598555</v>
+        <v>0.1572233410906667</v>
       </c>
       <c r="R4">
-        <v>11.886089630387</v>
+        <v>1.415010069816</v>
       </c>
       <c r="S4">
-        <v>0.1819880302883453</v>
+        <v>0.02368714723035899</v>
       </c>
       <c r="T4">
-        <v>0.1819880302883453</v>
+        <v>0.02368714723035899</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>5.531285</v>
       </c>
       <c r="I5">
-        <v>0.4327498305196134</v>
+        <v>0.7704314695358874</v>
       </c>
       <c r="J5">
-        <v>0.4327498305196134</v>
+        <v>0.7704314695358874</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3173666666666666</v>
+        <v>0.05661333333333334</v>
       </c>
       <c r="N5">
-        <v>0.9520999999999999</v>
+        <v>0.16984</v>
       </c>
       <c r="O5">
-        <v>0.1863268828340317</v>
+        <v>0.0204119846136133</v>
       </c>
       <c r="P5">
-        <v>0.1863268828340316</v>
+        <v>0.02041198461361329</v>
       </c>
       <c r="Q5">
-        <v>0.5851484942777777</v>
+        <v>0.1043814938222222</v>
       </c>
       <c r="R5">
-        <v>5.2663364485</v>
+        <v>0.9394334444000002</v>
       </c>
       <c r="S5">
-        <v>0.08063292696767507</v>
+        <v>0.01572603530201001</v>
       </c>
       <c r="T5">
-        <v>0.08063292696767504</v>
+        <v>0.01572603530201001</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>5.531285</v>
       </c>
       <c r="I6">
-        <v>0.4327498305196134</v>
+        <v>0.7704314695358874</v>
       </c>
       <c r="J6">
-        <v>0.4327498305196134</v>
+        <v>0.7704314695358874</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,13 +803,13 @@
         <v>0.2780386666666667</v>
       </c>
       <c r="N6">
-        <v>0.834116</v>
+        <v>0.8341160000000001</v>
       </c>
       <c r="O6">
-        <v>0.1632373009158609</v>
+        <v>0.100247073468963</v>
       </c>
       <c r="P6">
-        <v>0.1632373009158609</v>
+        <v>0.1002470734689629</v>
       </c>
       <c r="Q6">
         <v>0.5126370354511112</v>
@@ -818,10 +818,10 @@
         <v>4.613733319060001</v>
       </c>
       <c r="S6">
-        <v>0.07064091430581795</v>
+        <v>0.0772335001293652</v>
       </c>
       <c r="T6">
-        <v>0.07064091430581793</v>
+        <v>0.07723350012936518</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>5.531285</v>
       </c>
       <c r="I7">
-        <v>0.4327498305196134</v>
+        <v>0.7704314695358874</v>
       </c>
       <c r="J7">
-        <v>0.4327498305196134</v>
+        <v>0.7704314695358874</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.107873666666667</v>
+        <v>2.438882</v>
       </c>
       <c r="N7">
-        <v>3.323621</v>
+        <v>7.316646</v>
       </c>
       <c r="O7">
-        <v>0.6504358162501074</v>
+        <v>0.8793409419174237</v>
       </c>
       <c r="P7">
-        <v>0.6504358162501074</v>
+        <v>0.8793409419174237</v>
       </c>
       <c r="Q7">
-        <v>2.042654998109445</v>
+        <v>4.496717141123334</v>
       </c>
       <c r="R7">
-        <v>18.383894982985</v>
+        <v>40.47045427011</v>
       </c>
       <c r="S7">
-        <v>0.2814759892461204</v>
+        <v>0.6774719341045121</v>
       </c>
       <c r="T7">
-        <v>0.2814759892461203</v>
+        <v>0.6774719341045121</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.224727666666667</v>
+        <v>0.4849276666666666</v>
       </c>
       <c r="H8">
-        <v>3.674183</v>
+        <v>1.454783</v>
       </c>
       <c r="I8">
-        <v>0.2874561825232373</v>
+        <v>0.2026311434948347</v>
       </c>
       <c r="J8">
-        <v>0.2874561825232373</v>
+        <v>0.2026311434948347</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3173666666666666</v>
+        <v>0.05661333333333334</v>
       </c>
       <c r="N8">
-        <v>0.9520999999999999</v>
+        <v>0.16984</v>
       </c>
       <c r="O8">
-        <v>0.1863268828340317</v>
+        <v>0.0204119846136133</v>
       </c>
       <c r="P8">
-        <v>0.1863268828340316</v>
+        <v>0.02041198461361329</v>
       </c>
       <c r="Q8">
-        <v>0.3886877371444444</v>
+        <v>0.02745337163555556</v>
       </c>
       <c r="R8">
-        <v>3.4981896343</v>
+        <v>0.24708034472</v>
       </c>
       <c r="S8">
-        <v>0.05356081444092526</v>
+        <v>0.004136103783255434</v>
       </c>
       <c r="T8">
-        <v>0.05356081444092525</v>
+        <v>0.004136103783255433</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.224727666666667</v>
+        <v>0.4849276666666666</v>
       </c>
       <c r="H9">
-        <v>3.674183</v>
+        <v>1.454783</v>
       </c>
       <c r="I9">
-        <v>0.2874561825232373</v>
+        <v>0.2026311434948347</v>
       </c>
       <c r="J9">
-        <v>0.2874561825232373</v>
+        <v>0.2026311434948347</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,25 +989,25 @@
         <v>0.2780386666666667</v>
       </c>
       <c r="N9">
-        <v>0.834116</v>
+        <v>0.8341160000000001</v>
       </c>
       <c r="O9">
-        <v>0.1632373009158609</v>
+        <v>0.100247073468963</v>
       </c>
       <c r="P9">
-        <v>0.1632373009158609</v>
+        <v>0.1002470734689629</v>
       </c>
       <c r="Q9">
-        <v>0.3405216474697778</v>
+        <v>0.1348286418697778</v>
       </c>
       <c r="R9">
-        <v>3.064694827228</v>
+        <v>1.213457776828</v>
       </c>
       <c r="S9">
-        <v>0.04692357136667032</v>
+        <v>0.02031317912902667</v>
       </c>
       <c r="T9">
-        <v>0.04692357136667032</v>
+        <v>0.02031317912902667</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.224727666666667</v>
+        <v>0.4849276666666666</v>
       </c>
       <c r="H10">
-        <v>3.674183</v>
+        <v>1.454783</v>
       </c>
       <c r="I10">
-        <v>0.2874561825232373</v>
+        <v>0.2026311434948347</v>
       </c>
       <c r="J10">
-        <v>0.2874561825232373</v>
+        <v>0.2026311434948347</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.107873666666667</v>
+        <v>2.438882</v>
       </c>
       <c r="N10">
-        <v>3.323621</v>
+        <v>7.316646</v>
       </c>
       <c r="O10">
-        <v>0.6504358162501074</v>
+        <v>0.8793409419174237</v>
       </c>
       <c r="P10">
-        <v>0.6504358162501074</v>
+        <v>0.8793409419174237</v>
       </c>
       <c r="Q10">
-        <v>1.356843530738111</v>
+        <v>1.182681357535333</v>
       </c>
       <c r="R10">
-        <v>12.211591776643</v>
+        <v>10.644132217818</v>
       </c>
       <c r="S10">
-        <v>0.1869717967156417</v>
+        <v>0.1781818605825526</v>
       </c>
       <c r="T10">
-        <v>0.1869717967156417</v>
+        <v>0.1781818605825526</v>
       </c>
     </row>
   </sheetData>
